--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.29283516317092</v>
+        <v>9.895758333333333</v>
       </c>
       <c r="H2">
-        <v>4.29283516317092</v>
+        <v>29.687275</v>
       </c>
       <c r="I2">
-        <v>0.004298197636674108</v>
+        <v>0.009836335004010318</v>
       </c>
       <c r="J2">
-        <v>0.004298197636674108</v>
+        <v>0.009836335004010316</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.1908287964109</v>
+        <v>1.764494666666667</v>
       </c>
       <c r="N2">
-        <v>1.1908287964109</v>
+        <v>5.293483999999999</v>
       </c>
       <c r="O2">
-        <v>0.01038304575592476</v>
+        <v>0.0152564507897189</v>
       </c>
       <c r="P2">
-        <v>0.01038304575592476</v>
+        <v>0.0152564507897189</v>
       </c>
       <c r="Q2">
-        <v>5.112031730549215</v>
+        <v>17.46101280178889</v>
       </c>
       <c r="R2">
-        <v>5.112031730549215</v>
+        <v>157.1491152161</v>
       </c>
       <c r="S2">
-        <v>4.462838272959494E-05</v>
+        <v>0.0001500675609398729</v>
       </c>
       <c r="T2">
-        <v>4.462838272959494E-05</v>
+        <v>0.0001500675609398729</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.29283516317092</v>
+        <v>9.895758333333333</v>
       </c>
       <c r="H3">
-        <v>4.29283516317092</v>
+        <v>29.687275</v>
       </c>
       <c r="I3">
-        <v>0.004298197636674108</v>
+        <v>0.009836335004010318</v>
       </c>
       <c r="J3">
-        <v>0.004298197636674108</v>
+        <v>0.009836335004010316</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>93.65730133134041</v>
+        <v>93.97803500000002</v>
       </c>
       <c r="N3">
-        <v>93.65730133134041</v>
+        <v>281.934105</v>
       </c>
       <c r="O3">
-        <v>0.8166144856680086</v>
+        <v>0.8125676395500474</v>
       </c>
       <c r="P3">
-        <v>0.8166144856680086</v>
+        <v>0.8125676395500474</v>
       </c>
       <c r="Q3">
-        <v>402.0553564428727</v>
+        <v>929.9839230015418</v>
       </c>
       <c r="R3">
-        <v>402.0553564428727</v>
+        <v>8369.855307013877</v>
       </c>
       <c r="S3">
-        <v>0.003509970452372077</v>
+        <v>0.00799268751603217</v>
       </c>
       <c r="T3">
-        <v>0.003509970452372077</v>
+        <v>0.007992687516032168</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.29283516317092</v>
+        <v>9.895758333333333</v>
       </c>
       <c r="H4">
-        <v>4.29283516317092</v>
+        <v>29.687275</v>
       </c>
       <c r="I4">
-        <v>0.004298197636674108</v>
+        <v>0.009836335004010318</v>
       </c>
       <c r="J4">
-        <v>0.004298197636674108</v>
+        <v>0.009836335004010316</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.8416077780448</v>
+        <v>19.913116</v>
       </c>
       <c r="N4">
-        <v>19.8416077780448</v>
+        <v>59.73934800000001</v>
       </c>
       <c r="O4">
-        <v>0.1730024685760665</v>
+        <v>0.1721759096602337</v>
       </c>
       <c r="P4">
-        <v>0.1730024685760665</v>
+        <v>0.1721759096602337</v>
       </c>
       <c r="Q4">
-        <v>85.17675156343634</v>
+        <v>197.0553835996334</v>
       </c>
       <c r="R4">
-        <v>85.17675156343634</v>
+        <v>1773.4984523967</v>
       </c>
       <c r="S4">
-        <v>0.0007435988015724359</v>
+        <v>0.001693579927038275</v>
       </c>
       <c r="T4">
-        <v>0.0007435988015724359</v>
+        <v>0.001693579927038275</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>950.177897448365</v>
+        <v>950.6576336666667</v>
       </c>
       <c r="H5">
-        <v>950.177897448365</v>
+        <v>2851.972901</v>
       </c>
       <c r="I5">
-        <v>0.9513648295351349</v>
+        <v>0.9449490017724818</v>
       </c>
       <c r="J5">
-        <v>0.9513648295351349</v>
+        <v>0.9449490017724816</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.1908287964109</v>
+        <v>1.764494666666667</v>
       </c>
       <c r="N5">
-        <v>1.1908287964109</v>
+        <v>5.293483999999999</v>
       </c>
       <c r="O5">
-        <v>0.01038304575592476</v>
+        <v>0.0152564507897189</v>
       </c>
       <c r="P5">
-        <v>0.01038304575592476</v>
+        <v>0.0152564507897189</v>
       </c>
       <c r="Q5">
-        <v>1131.499201994676</v>
+        <v>1677.430324430787</v>
       </c>
       <c r="R5">
-        <v>1131.499201994676</v>
+        <v>15096.87291987708</v>
       </c>
       <c r="S5">
-        <v>0.009878064555640869</v>
+        <v>0.01441656794433587</v>
       </c>
       <c r="T5">
-        <v>0.009878064555640869</v>
+        <v>0.01441656794433587</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>950.177897448365</v>
+        <v>950.6576336666667</v>
       </c>
       <c r="H6">
-        <v>950.177897448365</v>
+        <v>2851.972901</v>
       </c>
       <c r="I6">
-        <v>0.9513648295351349</v>
+        <v>0.9449490017724818</v>
       </c>
       <c r="J6">
-        <v>0.9513648295351349</v>
+        <v>0.9449490017724816</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>93.65730133134041</v>
+        <v>93.97803500000002</v>
       </c>
       <c r="N6">
-        <v>93.65730133134041</v>
+        <v>281.934105</v>
       </c>
       <c r="O6">
-        <v>0.8166144856680086</v>
+        <v>0.8125676395500474</v>
       </c>
       <c r="P6">
-        <v>0.8166144856680086</v>
+        <v>0.8125676395500474</v>
       </c>
       <c r="Q6">
-        <v>88991.09765970099</v>
+        <v>89340.9363697432</v>
       </c>
       <c r="R6">
-        <v>88991.09765970099</v>
+        <v>804068.4273276888</v>
       </c>
       <c r="S6">
-        <v>0.7768983009534669</v>
+        <v>0.767834979865439</v>
       </c>
       <c r="T6">
-        <v>0.7768983009534669</v>
+        <v>0.767834979865439</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>950.177897448365</v>
+        <v>950.6576336666667</v>
       </c>
       <c r="H7">
-        <v>950.177897448365</v>
+        <v>2851.972901</v>
       </c>
       <c r="I7">
-        <v>0.9513648295351349</v>
+        <v>0.9449490017724818</v>
       </c>
       <c r="J7">
-        <v>0.9513648295351349</v>
+        <v>0.9449490017724816</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.8416077780448</v>
+        <v>19.913116</v>
       </c>
       <c r="N7">
-        <v>19.8416077780448</v>
+        <v>59.73934800000001</v>
       </c>
       <c r="O7">
-        <v>0.1730024685760665</v>
+        <v>0.1721759096602337</v>
       </c>
       <c r="P7">
-        <v>0.1730024685760665</v>
+        <v>0.1721759096602337</v>
       </c>
       <c r="Q7">
-        <v>18853.05716053773</v>
+        <v>18930.55573548984</v>
       </c>
       <c r="R7">
-        <v>18853.05716053773</v>
+        <v>170375.0016194086</v>
       </c>
       <c r="S7">
-        <v>0.1645884640260271</v>
+        <v>0.1626974539627068</v>
       </c>
       <c r="T7">
-        <v>0.1645884640260271</v>
+        <v>0.1626974539627068</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>44.2816575862919</v>
+        <v>45.48781433333333</v>
       </c>
       <c r="H8">
-        <v>44.2816575862919</v>
+        <v>136.463443</v>
       </c>
       <c r="I8">
-        <v>0.04433697282819099</v>
+        <v>0.04521466322350794</v>
       </c>
       <c r="J8">
-        <v>0.04433697282819099</v>
+        <v>0.04521466322350793</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.1908287964109</v>
+        <v>1.764494666666667</v>
       </c>
       <c r="N8">
-        <v>1.1908287964109</v>
+        <v>5.293483999999999</v>
       </c>
       <c r="O8">
-        <v>0.01038304575592476</v>
+        <v>0.0152564507897189</v>
       </c>
       <c r="P8">
-        <v>0.01038304575592476</v>
+        <v>0.0152564507897189</v>
       </c>
       <c r="Q8">
-        <v>52.73187300656357</v>
+        <v>80.26300578949021</v>
       </c>
       <c r="R8">
-        <v>52.73187300656357</v>
+        <v>722.3670521054119</v>
       </c>
       <c r="S8">
-        <v>0.0004603528175543001</v>
+        <v>0.0006898152844431619</v>
       </c>
       <c r="T8">
-        <v>0.0004603528175543001</v>
+        <v>0.0006898152844431618</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>44.2816575862919</v>
+        <v>45.48781433333333</v>
       </c>
       <c r="H9">
-        <v>44.2816575862919</v>
+        <v>136.463443</v>
       </c>
       <c r="I9">
-        <v>0.04433697282819099</v>
+        <v>0.04521466322350794</v>
       </c>
       <c r="J9">
-        <v>0.04433697282819099</v>
+        <v>0.04521466322350793</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>93.65730133134041</v>
+        <v>93.97803500000002</v>
       </c>
       <c r="N9">
-        <v>93.65730133134041</v>
+        <v>281.934105</v>
       </c>
       <c r="O9">
-        <v>0.8166144856680086</v>
+        <v>0.8125676395500474</v>
       </c>
       <c r="P9">
-        <v>0.8166144856680086</v>
+        <v>0.8125676395500474</v>
       </c>
       <c r="Q9">
-        <v>4147.300548010577</v>
+        <v>4274.855407491502</v>
       </c>
       <c r="R9">
-        <v>4147.300548010577</v>
+        <v>38473.69866742352</v>
       </c>
       <c r="S9">
-        <v>0.03620621426216966</v>
+        <v>0.03673997216857618</v>
       </c>
       <c r="T9">
-        <v>0.03620621426216966</v>
+        <v>0.03673997216857618</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>44.2816575862919</v>
+        <v>45.48781433333333</v>
       </c>
       <c r="H10">
-        <v>44.2816575862919</v>
+        <v>136.463443</v>
       </c>
       <c r="I10">
-        <v>0.04433697282819099</v>
+        <v>0.04521466322350794</v>
       </c>
       <c r="J10">
-        <v>0.04433697282819099</v>
+        <v>0.04521466322350793</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.8416077780448</v>
+        <v>19.913116</v>
       </c>
       <c r="N10">
-        <v>19.8416077780448</v>
+        <v>59.73934800000001</v>
       </c>
       <c r="O10">
-        <v>0.1730024685760665</v>
+        <v>0.1721759096602337</v>
       </c>
       <c r="P10">
-        <v>0.1730024685760665</v>
+        <v>0.1721759096602337</v>
       </c>
       <c r="Q10">
-        <v>878.6192815888859</v>
+        <v>905.8041234061293</v>
       </c>
       <c r="R10">
-        <v>878.6192815888859</v>
+        <v>8152.237110655164</v>
       </c>
       <c r="S10">
-        <v>0.007670405748467028</v>
+        <v>0.007784875770488593</v>
       </c>
       <c r="T10">
-        <v>0.007670405748467028</v>
+        <v>0.007784875770488593</v>
       </c>
     </row>
   </sheetData>
